--- a/project/doc/滑行路线资料.xlsx
+++ b/project/doc/滑行路线资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="滑行路线" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="滑行路线插入" sheetId="4" r:id="rId3"/>
     <sheet name="路径点插入" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="199">
   <si>
     <t>path_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,10 +521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,22 +569,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G4T61</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,26 +589,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T8H3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,18 +681,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,6 +718,90 @@
   </si>
   <si>
     <t>82C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,18 +979,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,9 +1302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,7 +1754,7 @@
         <v>9328</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1">
         <v>9265</v>
@@ -1981,10 +2013,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>9208</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1">
         <v>9352</v>
@@ -2004,10 +2036,10 @@
         <v>41</v>
       </c>
       <c r="C33" s="1">
-        <v>9208</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1">
         <v>9352</v>
@@ -2027,10 +2059,10 @@
         <v>42</v>
       </c>
       <c r="C34" s="1">
-        <v>9265</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1">
         <v>9352</v>
@@ -2050,10 +2082,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>9265</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1">
         <v>9352</v>
@@ -2073,10 +2105,10 @@
         <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>9118</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1">
         <v>9352</v>
@@ -2096,10 +2128,10 @@
         <v>45</v>
       </c>
       <c r="C37" s="1">
-        <v>9118</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E37" s="1">
         <v>9352</v>
@@ -2119,10 +2151,10 @@
         <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>9293</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="E38" s="1">
         <v>9352</v>
@@ -2142,10 +2174,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>9293</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="E39" s="1">
         <v>9352</v>
@@ -2165,10 +2197,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>9086</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E40" s="1">
         <v>9352</v>
@@ -2188,10 +2220,10 @@
         <v>47</v>
       </c>
       <c r="C41" s="1">
-        <v>9086</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E41" s="1">
         <v>9352</v>
@@ -2211,10 +2243,10 @@
         <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>9360</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="E42" s="1">
         <v>9352</v>
@@ -2234,10 +2266,10 @@
         <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>9360</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1">
         <v>9352</v>
@@ -2257,10 +2289,10 @@
         <v>52</v>
       </c>
       <c r="C44" s="1">
-        <v>9020</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="E44" s="1">
         <v>9352</v>
@@ -2280,10 +2312,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="1">
-        <v>9020</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="E45" s="1">
         <v>9352</v>
@@ -2312,8 +2344,8 @@
   <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E515"/>
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2499,11 +2531,11 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -2636,11 +2668,11 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -2760,11 +2792,11 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -2910,11 +2942,11 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -3008,11 +3040,11 @@
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3132,11 +3164,11 @@
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
@@ -3230,11 +3262,11 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
@@ -3380,11 +3412,11 @@
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
@@ -3530,11 +3562,11 @@
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
@@ -3693,11 +3725,11 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
@@ -3869,11 +3901,11 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
@@ -4032,11 +4064,11 @@
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
@@ -4299,11 +4331,11 @@
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
@@ -4599,11 +4631,11 @@
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="7">
@@ -4749,11 +4781,11 @@
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="7">
@@ -4886,11 +4918,11 @@
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="7">
@@ -5023,11 +5055,11 @@
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" s="16"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="17"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="16"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="7">
@@ -5134,11 +5166,11 @@
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="7">
@@ -5245,11 +5277,11 @@
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
+      <c r="A234" s="15"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="7">
@@ -5356,11 +5388,11 @@
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A243" s="14"/>
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="7">
@@ -5630,11 +5662,11 @@
       <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="7">
@@ -5754,11 +5786,11 @@
       <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="14"/>
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="7">
@@ -5917,11 +5949,11 @@
       <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
+      <c r="C288" s="15"/>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="7">
@@ -6041,11 +6073,11 @@
       <c r="E297" s="8"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
+      <c r="A298" s="15"/>
+      <c r="B298" s="15"/>
+      <c r="C298" s="15"/>
+      <c r="D298" s="15"/>
+      <c r="E298" s="15"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="7">
@@ -6295,11 +6327,11 @@
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A318" s="13"/>
-      <c r="B318" s="13"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
+      <c r="A318" s="15"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
+      <c r="D318" s="15"/>
+      <c r="E318" s="15"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="7">
@@ -6406,11 +6438,11 @@
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A327" s="13"/>
-      <c r="B327" s="13"/>
-      <c r="C327" s="13"/>
-      <c r="D327" s="13"/>
-      <c r="E327" s="13"/>
+      <c r="A327" s="15"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
+      <c r="D327" s="15"/>
+      <c r="E327" s="15"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
@@ -6421,7 +6453,7 @@
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="7" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="E328" s="6"/>
     </row>
@@ -6434,7 +6466,7 @@
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E329" s="6"/>
     </row>
@@ -6447,7 +6479,7 @@
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E330" s="6"/>
     </row>
@@ -6460,7 +6492,7 @@
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E331" s="6"/>
     </row>
@@ -6473,7 +6505,7 @@
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E332" s="6"/>
     </row>
@@ -6486,7 +6518,7 @@
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E333" s="6"/>
     </row>
@@ -6499,7 +6531,7 @@
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E334" s="6"/>
     </row>
@@ -6512,7 +6544,7 @@
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E335" s="6"/>
     </row>
@@ -6525,7 +6557,7 @@
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E336" s="6"/>
     </row>
@@ -6538,7 +6570,7 @@
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E337" s="6"/>
     </row>
@@ -6551,16 +6583,16 @@
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E338" s="6"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A339" s="13"/>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
+      <c r="A339" s="15"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
+      <c r="D339" s="15"/>
+      <c r="E339" s="15"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
@@ -6571,7 +6603,7 @@
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="7" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="E340" s="6"/>
     </row>
@@ -6584,7 +6616,7 @@
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E341" s="6"/>
     </row>
@@ -6597,7 +6629,7 @@
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E342" s="6"/>
     </row>
@@ -6610,7 +6642,7 @@
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E343" s="6"/>
     </row>
@@ -6623,7 +6655,7 @@
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E344" s="6"/>
     </row>
@@ -6636,7 +6668,7 @@
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E345" s="6"/>
     </row>
@@ -6649,7 +6681,7 @@
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E346" s="6"/>
     </row>
@@ -6662,7 +6694,7 @@
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E347" s="6"/>
     </row>
@@ -6675,7 +6707,7 @@
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E348" s="6"/>
     </row>
@@ -6688,7 +6720,7 @@
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E349" s="6"/>
     </row>
@@ -6701,7 +6733,7 @@
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E350" s="6"/>
     </row>
@@ -6714,7 +6746,7 @@
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E351" s="6"/>
     </row>
@@ -6727,16 +6759,16 @@
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A353" s="13"/>
-      <c r="B353" s="13"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
+      <c r="A353" s="15"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
+      <c r="D353" s="15"/>
+      <c r="E353" s="15"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
@@ -6747,7 +6779,7 @@
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="E354" s="6"/>
     </row>
@@ -6760,7 +6792,7 @@
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E355" s="6"/>
     </row>
@@ -6773,7 +6805,7 @@
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E356" s="6"/>
     </row>
@@ -6786,7 +6818,7 @@
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E357" s="6"/>
     </row>
@@ -6799,7 +6831,7 @@
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E358" s="6"/>
     </row>
@@ -6812,7 +6844,7 @@
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E359" s="6"/>
     </row>
@@ -6825,7 +6857,7 @@
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E360" s="6"/>
     </row>
@@ -6838,7 +6870,7 @@
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E361" s="6"/>
     </row>
@@ -6851,7 +6883,7 @@
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E362" s="6"/>
     </row>
@@ -6864,16 +6896,16 @@
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E363" s="6"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A364" s="13"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
+      <c r="A364" s="15"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
+      <c r="D364" s="15"/>
+      <c r="E364" s="15"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
@@ -6884,7 +6916,7 @@
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="7" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E365" s="6"/>
     </row>
@@ -6897,7 +6929,7 @@
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E366" s="6"/>
     </row>
@@ -6910,7 +6942,7 @@
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E367" s="6"/>
     </row>
@@ -6923,7 +6955,7 @@
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E368" s="6"/>
     </row>
@@ -6936,7 +6968,7 @@
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E369" s="6"/>
     </row>
@@ -6949,7 +6981,7 @@
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E370" s="6"/>
     </row>
@@ -6962,7 +6994,7 @@
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E371" s="6"/>
     </row>
@@ -6975,7 +7007,7 @@
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E372" s="6"/>
     </row>
@@ -6988,7 +7020,7 @@
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E373" s="6"/>
     </row>
@@ -7001,7 +7033,7 @@
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E374" s="6"/>
     </row>
@@ -7014,7 +7046,7 @@
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E375" s="6"/>
     </row>
@@ -7027,16 +7059,16 @@
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E376" s="6"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A377" s="13"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
+      <c r="A377" s="15"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="15"/>
+      <c r="D377" s="15"/>
+      <c r="E377" s="15"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
@@ -7047,7 +7079,7 @@
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="7" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E378" s="6"/>
     </row>
@@ -7060,7 +7092,7 @@
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E379" s="6"/>
     </row>
@@ -7073,7 +7105,7 @@
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E380" s="6"/>
     </row>
@@ -7086,7 +7118,7 @@
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E381" s="6"/>
     </row>
@@ -7099,7 +7131,7 @@
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E382" s="6"/>
     </row>
@@ -7112,7 +7144,7 @@
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E383" s="6"/>
     </row>
@@ -7125,7 +7157,7 @@
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E384" s="6"/>
     </row>
@@ -7138,16 +7170,16 @@
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E385" s="6"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A386" s="13"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
-      <c r="E386" s="13"/>
+      <c r="A386" s="15"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="15"/>
+      <c r="D386" s="15"/>
+      <c r="E386" s="15"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
@@ -7158,7 +7190,7 @@
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="7" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="E387" s="6"/>
     </row>
@@ -7171,7 +7203,7 @@
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E388" s="6"/>
     </row>
@@ -7184,7 +7216,7 @@
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E389" s="6"/>
     </row>
@@ -7197,7 +7229,7 @@
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E390" s="6"/>
     </row>
@@ -7210,7 +7242,7 @@
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E391" s="6"/>
     </row>
@@ -7223,7 +7255,7 @@
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E392" s="6"/>
     </row>
@@ -7236,7 +7268,7 @@
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E393" s="6"/>
     </row>
@@ -7249,7 +7281,7 @@
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E394" s="6"/>
     </row>
@@ -7262,7 +7294,7 @@
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E395" s="6"/>
     </row>
@@ -7275,16 +7307,16 @@
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E396" s="6"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A397" s="13"/>
-      <c r="B397" s="13"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="13"/>
-      <c r="E397" s="13"/>
+      <c r="A397" s="15"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="15"/>
+      <c r="D397" s="15"/>
+      <c r="E397" s="15"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
@@ -7295,7 +7327,7 @@
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E398" s="6"/>
     </row>
@@ -7308,7 +7340,7 @@
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E399" s="6"/>
     </row>
@@ -7321,7 +7353,7 @@
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E400" s="6"/>
     </row>
@@ -7334,7 +7366,7 @@
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E401" s="6"/>
     </row>
@@ -7347,7 +7379,7 @@
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E402" s="6"/>
     </row>
@@ -7360,7 +7392,7 @@
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E403" s="6"/>
     </row>
@@ -7373,7 +7405,7 @@
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E404" s="6"/>
     </row>
@@ -7386,16 +7418,16 @@
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E405" s="6"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A406" s="13"/>
-      <c r="B406" s="13"/>
-      <c r="C406" s="13"/>
-      <c r="D406" s="13"/>
-      <c r="E406" s="13"/>
+      <c r="A406" s="15"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="15"/>
+      <c r="D406" s="15"/>
+      <c r="E406" s="15"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
@@ -7406,7 +7438,7 @@
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E407" s="6"/>
     </row>
@@ -7419,7 +7451,7 @@
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E408" s="6"/>
     </row>
@@ -7432,7 +7464,7 @@
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E409" s="6"/>
     </row>
@@ -7445,7 +7477,7 @@
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E410" s="6"/>
     </row>
@@ -7458,7 +7490,7 @@
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E411" s="6"/>
     </row>
@@ -7471,7 +7503,7 @@
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E412" s="6"/>
     </row>
@@ -7484,7 +7516,7 @@
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E413" s="6"/>
     </row>
@@ -7497,7 +7529,7 @@
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E414" s="6"/>
     </row>
@@ -7510,7 +7542,7 @@
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E415" s="6"/>
     </row>
@@ -7523,7 +7555,7 @@
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E416" s="6"/>
     </row>
@@ -7536,7 +7568,7 @@
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E417" s="6"/>
     </row>
@@ -7549,16 +7581,16 @@
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E418" s="6"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A419" s="13"/>
-      <c r="B419" s="13"/>
-      <c r="C419" s="13"/>
-      <c r="D419" s="13"/>
-      <c r="E419" s="13"/>
+      <c r="A419" s="15"/>
+      <c r="B419" s="15"/>
+      <c r="C419" s="15"/>
+      <c r="D419" s="15"/>
+      <c r="E419" s="15"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
@@ -7569,7 +7601,7 @@
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E420" s="6"/>
     </row>
@@ -7582,7 +7614,7 @@
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E421" s="6"/>
     </row>
@@ -7595,7 +7627,7 @@
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E422" s="6"/>
     </row>
@@ -7608,7 +7640,7 @@
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E423" s="6"/>
     </row>
@@ -7621,7 +7653,7 @@
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E424" s="6"/>
     </row>
@@ -7634,7 +7666,7 @@
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E425" s="6"/>
     </row>
@@ -7647,7 +7679,7 @@
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E426" s="6"/>
     </row>
@@ -7660,7 +7692,7 @@
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E427" s="6"/>
     </row>
@@ -7673,7 +7705,7 @@
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E428" s="6"/>
     </row>
@@ -7686,7 +7718,7 @@
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E429" s="6"/>
     </row>
@@ -7699,7 +7731,7 @@
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E430" s="6"/>
     </row>
@@ -7712,16 +7744,16 @@
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E431" s="6"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
+      <c r="A432" s="17"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="17"/>
+      <c r="D432" s="17"/>
+      <c r="E432" s="17"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
@@ -7732,7 +7764,7 @@
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E433" s="6"/>
     </row>
@@ -7745,7 +7777,7 @@
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E434" s="6"/>
     </row>
@@ -7758,7 +7790,7 @@
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E435" s="6"/>
     </row>
@@ -7771,7 +7803,7 @@
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E436" s="6"/>
     </row>
@@ -7784,7 +7816,7 @@
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E437" s="6"/>
     </row>
@@ -7797,7 +7829,7 @@
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E438" s="6"/>
     </row>
@@ -7810,7 +7842,7 @@
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E439" s="6"/>
     </row>
@@ -7823,7 +7855,7 @@
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E440" s="6"/>
     </row>
@@ -7836,7 +7868,7 @@
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E441" s="6"/>
     </row>
@@ -7849,7 +7881,7 @@
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E442" s="6"/>
     </row>
@@ -7862,7 +7894,7 @@
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E443" s="6"/>
     </row>
@@ -7875,7 +7907,7 @@
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E444" s="6"/>
     </row>
@@ -7888,7 +7920,7 @@
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E445" s="6"/>
     </row>
@@ -7901,7 +7933,7 @@
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E446" s="6"/>
     </row>
@@ -7914,7 +7946,7 @@
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E447" s="6"/>
     </row>
@@ -7927,7 +7959,7 @@
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E448" s="6"/>
     </row>
@@ -7940,16 +7972,16 @@
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E449" s="6"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A450" s="13"/>
-      <c r="B450" s="13"/>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13"/>
+      <c r="A450" s="15"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="15"/>
+      <c r="D450" s="15"/>
+      <c r="E450" s="15"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
@@ -7960,7 +7992,7 @@
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E451" s="6"/>
     </row>
@@ -7973,7 +8005,7 @@
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E452" s="6"/>
     </row>
@@ -7986,7 +8018,7 @@
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E453" s="6"/>
     </row>
@@ -7999,7 +8031,7 @@
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E454" s="6"/>
     </row>
@@ -8012,7 +8044,7 @@
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E455" s="6"/>
     </row>
@@ -8025,7 +8057,7 @@
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E456" s="6"/>
     </row>
@@ -8038,7 +8070,7 @@
       </c>
       <c r="C457" s="1"/>
       <c r="D457" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E457" s="6"/>
     </row>
@@ -8051,7 +8083,7 @@
       </c>
       <c r="C458" s="1"/>
       <c r="D458" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E458" s="6"/>
     </row>
@@ -8064,7 +8096,7 @@
       </c>
       <c r="C459" s="1"/>
       <c r="D459" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E459" s="6"/>
     </row>
@@ -8077,7 +8109,7 @@
       </c>
       <c r="C460" s="1"/>
       <c r="D460" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E460" s="6"/>
     </row>
@@ -8090,7 +8122,7 @@
       </c>
       <c r="C461" s="1"/>
       <c r="D461" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E461" s="6"/>
     </row>
@@ -8103,7 +8135,7 @@
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E462" s="6"/>
     </row>
@@ -8116,7 +8148,7 @@
       </c>
       <c r="C463" s="1"/>
       <c r="D463" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E463" s="6"/>
     </row>
@@ -8129,16 +8161,16 @@
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E464" s="6"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A465" s="13"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="13"/>
-      <c r="D465" s="13"/>
-      <c r="E465" s="13"/>
+      <c r="A465" s="15"/>
+      <c r="B465" s="15"/>
+      <c r="C465" s="15"/>
+      <c r="D465" s="15"/>
+      <c r="E465" s="15"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
@@ -8149,7 +8181,7 @@
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E466" s="6"/>
     </row>
@@ -8162,7 +8194,7 @@
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E467" s="6"/>
     </row>
@@ -8175,7 +8207,7 @@
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E468" s="6"/>
     </row>
@@ -8188,7 +8220,7 @@
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E469" s="6"/>
     </row>
@@ -8201,7 +8233,7 @@
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E470" s="6"/>
     </row>
@@ -8214,7 +8246,7 @@
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E471" s="6"/>
     </row>
@@ -8227,7 +8259,7 @@
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E472" s="6"/>
     </row>
@@ -8240,7 +8272,7 @@
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E473" s="6"/>
     </row>
@@ -8253,7 +8285,7 @@
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E474" s="6"/>
     </row>
@@ -8266,7 +8298,7 @@
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E475" s="6"/>
     </row>
@@ -8279,7 +8311,7 @@
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E476" s="6"/>
     </row>
@@ -8292,7 +8324,7 @@
       </c>
       <c r="C477" s="1"/>
       <c r="D477" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E477" s="6"/>
     </row>
@@ -8305,7 +8337,7 @@
       </c>
       <c r="C478" s="1"/>
       <c r="D478" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E478" s="6"/>
     </row>
@@ -8318,7 +8350,7 @@
       </c>
       <c r="C479" s="1"/>
       <c r="D479" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E479" s="6"/>
     </row>
@@ -8331,16 +8363,16 @@
       </c>
       <c r="C480" s="1"/>
       <c r="D480" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E480" s="6"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A481" s="13"/>
-      <c r="B481" s="13"/>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
+      <c r="A481" s="15"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="15"/>
+      <c r="D481" s="15"/>
+      <c r="E481" s="15"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
@@ -8351,7 +8383,7 @@
       </c>
       <c r="C482" s="1"/>
       <c r="D482" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E482" s="6"/>
     </row>
@@ -8364,7 +8396,7 @@
       </c>
       <c r="C483" s="1"/>
       <c r="D483" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E483" s="6"/>
     </row>
@@ -8377,7 +8409,7 @@
       </c>
       <c r="C484" s="1"/>
       <c r="D484" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E484" s="6"/>
     </row>
@@ -8390,7 +8422,7 @@
       </c>
       <c r="C485" s="1"/>
       <c r="D485" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E485" s="6"/>
     </row>
@@ -8403,7 +8435,7 @@
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E486" s="6"/>
     </row>
@@ -8416,7 +8448,7 @@
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E487" s="6"/>
     </row>
@@ -8429,7 +8461,7 @@
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E488" s="6"/>
     </row>
@@ -8442,7 +8474,7 @@
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E489" s="6"/>
     </row>
@@ -8455,7 +8487,7 @@
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E490" s="6"/>
     </row>
@@ -8468,7 +8500,7 @@
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E491" s="6"/>
     </row>
@@ -8481,7 +8513,7 @@
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E492" s="6"/>
     </row>
@@ -8494,16 +8526,16 @@
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E493" s="6"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A494" s="14"/>
-      <c r="B494" s="14"/>
-      <c r="C494" s="14"/>
-      <c r="D494" s="14"/>
-      <c r="E494" s="14"/>
+      <c r="A494" s="17"/>
+      <c r="B494" s="17"/>
+      <c r="C494" s="17"/>
+      <c r="D494" s="17"/>
+      <c r="E494" s="17"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
@@ -8514,7 +8546,7 @@
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E495" s="6"/>
     </row>
@@ -8527,7 +8559,7 @@
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E496" s="6"/>
     </row>
@@ -8540,7 +8572,7 @@
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E497" s="6"/>
     </row>
@@ -8553,7 +8585,7 @@
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E498" s="6"/>
     </row>
@@ -8566,7 +8598,7 @@
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E499" s="6"/>
     </row>
@@ -8579,7 +8611,7 @@
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E500" s="6"/>
     </row>
@@ -8592,7 +8624,7 @@
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E501" s="6"/>
     </row>
@@ -8605,7 +8637,7 @@
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E502" s="6"/>
     </row>
@@ -8618,7 +8650,7 @@
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E503" s="6"/>
     </row>
@@ -8631,7 +8663,7 @@
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E504" s="6"/>
     </row>
@@ -8644,7 +8676,7 @@
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E505" s="6"/>
     </row>
@@ -8657,7 +8689,7 @@
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E506" s="6"/>
     </row>
@@ -8670,7 +8702,7 @@
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E507" s="6"/>
     </row>
@@ -8683,7 +8715,7 @@
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E508" s="6"/>
     </row>
@@ -8696,7 +8728,7 @@
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E509" s="6"/>
     </row>
@@ -8709,7 +8741,7 @@
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E510" s="6"/>
     </row>
@@ -8722,7 +8754,7 @@
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E511" s="6"/>
     </row>
@@ -8735,7 +8767,7 @@
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E512" s="6"/>
     </row>
@@ -8748,7 +8780,7 @@
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E513" s="6"/>
     </row>
@@ -8761,7 +8793,7 @@
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E514" s="6"/>
     </row>
@@ -8774,12 +8806,42 @@
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E515" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A494:E494"/>
+    <mergeCell ref="A465:E465"/>
+    <mergeCell ref="A481:E481"/>
+    <mergeCell ref="A450:E450"/>
+    <mergeCell ref="A432:E432"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A364:E364"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A298:E298"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A327:E327"/>
+    <mergeCell ref="A406:E406"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A397:E397"/>
     <mergeCell ref="A110:E110"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A216:E216"/>
@@ -8790,36 +8852,6 @@
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="A158:E158"/>
     <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A406:E406"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A397:E397"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A339:E339"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A364:E364"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A298:E298"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A327:E327"/>
-    <mergeCell ref="A494:E494"/>
-    <mergeCell ref="A465:E465"/>
-    <mergeCell ref="A481:E481"/>
-    <mergeCell ref="A450:E450"/>
-    <mergeCell ref="A432:E432"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8830,8 +8862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9344,7 +9376,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>9208</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>9352</v>
@@ -9361,7 +9393,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>9208</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>9352</v>
@@ -9378,7 +9410,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="1">
-        <v>9265</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
         <v>9352</v>
@@ -9395,7 +9427,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>9265</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
         <v>9352</v>
@@ -9412,7 +9444,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="1">
-        <v>9118</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
         <v>9352</v>
@@ -9429,7 +9461,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>9118</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1">
         <v>9352</v>
@@ -9446,7 +9478,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>9293</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>9352</v>
@@ -9463,7 +9495,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="1">
-        <v>9293</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>9352</v>
@@ -9480,7 +9512,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>9086</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>9352</v>
@@ -9497,7 +9529,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="1">
-        <v>9086</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
         <v>9352</v>
@@ -9514,7 +9546,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="1">
-        <v>9360</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1">
         <v>9352</v>
@@ -9531,7 +9563,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="1">
-        <v>9360</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>9352</v>
@@ -9548,7 +9580,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="1">
-        <v>9020</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>9352</v>
@@ -9565,7 +9597,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="1">
-        <v>9020</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <v>9352</v>
@@ -9585,8 +9617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="K488" sqref="K488"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="C474" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14668,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="E299" s="6">
         <v>1</v>
@@ -14685,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
@@ -14702,7 +14734,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E301" s="6">
         <v>1</v>
@@ -14719,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E302" s="6">
         <v>1</v>
@@ -14736,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E303" s="6">
         <v>1</v>
@@ -14753,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E304" s="6">
         <v>1</v>
@@ -14770,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E305" s="6">
         <v>1</v>
@@ -14787,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E306" s="6">
         <v>1</v>
@@ -14804,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E307" s="6">
         <v>1</v>
@@ -14821,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E308" s="6">
         <v>1</v>
@@ -14838,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E309" s="6">
         <v>1</v>
@@ -14855,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="E310" s="6">
         <v>1</v>
@@ -14872,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E311" s="6">
         <v>1</v>
@@ -14889,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E312" s="6">
         <v>1</v>
@@ -14906,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E313" s="6">
         <v>1</v>
@@ -14923,7 +14955,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
@@ -14940,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -14957,7 +14989,7 @@
         <v>1</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -14974,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -14991,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -15008,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -15025,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -15042,7 +15074,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -15059,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -15076,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="E323" s="6">
         <v>1</v>
@@ -15093,7 +15125,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E324" s="6">
         <v>1</v>
@@ -15110,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E325" s="6">
         <v>1</v>
@@ -15127,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E326" s="6">
         <v>1</v>
@@ -15144,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E327" s="6">
         <v>1</v>
@@ -15161,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E328" s="6">
         <v>1</v>
@@ -15178,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E329" s="6">
         <v>1</v>
@@ -15195,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E330" s="6">
         <v>1</v>
@@ -15212,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E331" s="6">
         <v>1</v>
@@ -15229,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E332" s="6">
         <v>1</v>
@@ -15246,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E333" s="6">
         <v>1</v>
@@ -15263,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E334" s="6">
         <v>1</v>
@@ -15280,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E335" s="6">
         <v>1</v>
@@ -15297,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E336" s="6">
         <v>1</v>
@@ -15314,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E337" s="6">
         <v>1</v>
@@ -15331,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E338" s="6">
         <v>1</v>
@@ -15348,7 +15380,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E339" s="6">
         <v>1</v>
@@ -15365,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E340" s="6">
         <v>1</v>
@@ -15382,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E341" s="6">
         <v>1</v>
@@ -15399,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E342" s="6">
         <v>1</v>
@@ -15416,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E343" s="6">
         <v>1</v>
@@ -15433,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E344" s="6">
         <v>1</v>
@@ -15450,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="E345" s="6">
         <v>1</v>
@@ -15467,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E346" s="6">
         <v>1</v>
@@ -15484,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E347" s="6">
         <v>1</v>
@@ -15501,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E348" s="6">
         <v>1</v>
@@ -15518,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E349" s="6">
         <v>1</v>
@@ -15535,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E350" s="6">
         <v>1</v>
@@ -15552,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E351" s="6">
         <v>1</v>
@@ -15569,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E352" s="6">
         <v>1</v>
@@ -15586,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="E353" s="6">
         <v>1</v>
@@ -15603,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E354" s="6">
         <v>1</v>
@@ -15620,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E355" s="6">
         <v>1</v>
@@ -15637,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E356" s="6">
         <v>1</v>
@@ -15654,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E357" s="6">
         <v>1</v>
@@ -15671,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E358" s="6">
         <v>1</v>
@@ -15688,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E359" s="6">
         <v>1</v>
@@ -15705,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E360" s="6">
         <v>1</v>
@@ -15722,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E361" s="6">
         <v>1</v>
@@ -15739,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E362" s="6">
         <v>1</v>
@@ -15756,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E363" s="6">
         <v>1</v>
@@ -15773,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E364" s="6">
         <v>1</v>
@@ -15790,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E365" s="6">
         <v>1</v>
@@ -15807,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E366" s="6">
         <v>1</v>
@@ -15824,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E367" s="6">
         <v>1</v>
@@ -15841,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E368" s="6">
         <v>1</v>
@@ -15858,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E369" s="6">
         <v>1</v>
@@ -15875,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E370" s="6">
         <v>1</v>
@@ -15892,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E371" s="6">
         <v>1</v>
@@ -15909,7 +15941,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E372" s="6">
         <v>1</v>
@@ -15926,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E373" s="6">
         <v>1</v>
@@ -15943,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E374" s="6">
         <v>1</v>
@@ -15960,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E375" s="6">
         <v>1</v>
@@ -15977,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E376" s="6">
         <v>1</v>
@@ -15994,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E377" s="6">
         <v>1</v>
@@ -16011,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E378" s="6">
         <v>1</v>
@@ -16028,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E379" s="6">
         <v>1</v>
@@ -16045,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E380" s="6">
         <v>1</v>
@@ -16062,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E381" s="6">
         <v>1</v>
@@ -16079,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E382" s="6">
         <v>1</v>
@@ -16096,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E383" s="6">
         <v>1</v>
@@ -16113,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E384" s="6">
         <v>1</v>
@@ -16130,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E385" s="6">
         <v>1</v>
@@ -16147,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E386" s="6">
         <v>1</v>
@@ -16164,7 +16196,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E387" s="6">
         <v>1</v>
@@ -16181,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E388" s="6">
         <v>1</v>
@@ -16198,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E389" s="6">
         <v>1</v>
@@ -16215,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E390" s="6">
         <v>1</v>
@@ -16232,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E391" s="6">
         <v>1</v>
@@ -16249,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E392" s="6">
         <v>1</v>
@@ -16266,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E393" s="6">
         <v>1</v>
@@ -16283,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E394" s="6">
         <v>1</v>
@@ -16300,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E395" s="6">
         <v>1</v>
@@ -16317,7 +16349,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E396" s="6">
         <v>1</v>
@@ -16334,7 +16366,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E397" s="6">
         <v>1</v>
@@ -16351,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E398" s="6">
         <v>1</v>
@@ -16368,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E399" s="6">
         <v>1</v>
@@ -16385,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E400" s="6">
         <v>1</v>
@@ -16402,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E401" s="6">
         <v>1</v>
@@ -16419,7 +16451,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E402" s="6">
         <v>1</v>
@@ -16436,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E403" s="6">
         <v>1</v>
@@ -16453,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E404" s="6">
         <v>1</v>
@@ -16470,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E405" s="6">
         <v>1</v>
@@ -16487,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E406" s="6">
         <v>1</v>
@@ -16504,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E407" s="6">
         <v>1</v>
@@ -16521,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E408" s="6">
         <v>1</v>
@@ -16538,7 +16570,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E409" s="6">
         <v>1</v>
@@ -16555,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E410" s="6">
         <v>1</v>
@@ -16572,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E411" s="6">
         <v>1</v>
@@ -16589,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E412" s="6">
         <v>1</v>
@@ -16606,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E413" s="6">
         <v>1</v>
@@ -16623,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E414" s="6">
         <v>1</v>
@@ -16640,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E415" s="6">
         <v>1</v>
@@ -16657,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E416" s="6">
         <v>1</v>
@@ -16674,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E417" s="6">
         <v>1</v>
@@ -16691,7 +16723,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E418" s="6">
         <v>1</v>
@@ -16708,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E419" s="6">
         <v>1</v>
@@ -16725,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -16742,7 +16774,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -16759,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -16776,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -16793,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -16810,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -16827,7 +16859,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -16844,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E427" s="6">
         <v>1</v>
@@ -16861,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E428" s="6">
         <v>1</v>
@@ -16878,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E429" s="6">
         <v>1</v>
@@ -16895,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E430" s="6">
         <v>1</v>
@@ -16912,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E431" s="6">
         <v>1</v>
@@ -16929,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E432" s="6">
         <v>1</v>
@@ -16946,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E433" s="6">
         <v>1</v>
@@ -16963,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E434" s="6">
         <v>1</v>
@@ -16980,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E435" s="6">
         <v>1</v>
@@ -16997,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E436" s="6">
         <v>1</v>
@@ -17014,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E437" s="6">
         <v>1</v>
@@ -17031,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E438" s="6">
         <v>1</v>
@@ -17048,7 +17080,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E439" s="6">
         <v>1</v>
@@ -17065,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E440" s="6">
         <v>1</v>
@@ -17082,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E441" s="6">
         <v>1</v>
@@ -17099,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E442" s="6">
         <v>1</v>
@@ -17116,7 +17148,7 @@
         <v>1</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E443" s="6">
         <v>1</v>
@@ -17133,7 +17165,7 @@
         <v>1</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E444" s="6">
         <v>1</v>
@@ -17150,7 +17182,7 @@
         <v>1</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E445" s="6">
         <v>1</v>
@@ -17167,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E446" s="6">
         <v>1</v>
@@ -17184,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E447" s="6">
         <v>1</v>
@@ -17201,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E448" s="6">
         <v>1</v>
@@ -17218,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E449" s="6">
         <v>1</v>
@@ -17235,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E450" s="6">
         <v>1</v>
@@ -17252,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E451" s="6">
         <v>1</v>
@@ -17269,7 +17301,7 @@
         <v>1</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E452" s="6">
         <v>1</v>
@@ -17286,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E453" s="6">
         <v>1</v>
@@ -17303,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="D454" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E454" s="6">
         <v>1</v>
@@ -17320,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="D455" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E455" s="6">
         <v>1</v>
@@ -17337,7 +17369,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E456" s="6">
         <v>1</v>
@@ -17354,7 +17386,7 @@
         <v>1</v>
       </c>
       <c r="D457" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E457" s="6">
         <v>1</v>
@@ -17371,7 +17403,7 @@
         <v>1</v>
       </c>
       <c r="D458" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E458" s="6">
         <v>1</v>
@@ -17388,7 +17420,7 @@
         <v>1</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E459" s="6">
         <v>1</v>
@@ -17405,7 +17437,7 @@
         <v>1</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E460" s="6">
         <v>1</v>
@@ -17422,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E461" s="6">
         <v>1</v>
@@ -17439,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E462" s="6">
         <v>1</v>
@@ -17456,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E463" s="6">
         <v>1</v>
@@ -17473,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E464" s="6">
         <v>1</v>
@@ -17490,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E465" s="6">
         <v>1</v>
@@ -17507,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E466" s="6">
         <v>1</v>
@@ -17524,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E467" s="6">
         <v>1</v>
@@ -17541,7 +17573,7 @@
         <v>1</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E468" s="6">
         <v>1</v>
@@ -17558,7 +17590,7 @@
         <v>1</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E469" s="6">
         <v>1</v>
@@ -17575,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E470" s="6">
         <v>1</v>
@@ -17592,7 +17624,7 @@
         <v>1</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E471" s="6">
         <v>1</v>
@@ -17609,7 +17641,7 @@
         <v>1</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E472" s="6">
         <v>1</v>
@@ -17626,7 +17658,7 @@
         <v>1</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E473" s="6">
         <v>1</v>

--- a/project/doc/滑行路线资料.xlsx
+++ b/project/doc/滑行路线资料.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="198">
   <si>
     <t>path_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,10 +794,6 @@
   </si>
   <si>
     <t>3S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,18 +975,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,8 +1299,8 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2344,7 +2340,7 @@
   <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
@@ -2531,11 +2527,11 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -2668,11 +2664,11 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -2792,11 +2788,11 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -2942,11 +2938,11 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -3040,11 +3036,11 @@
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3164,11 +3160,11 @@
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
@@ -3262,11 +3258,11 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
@@ -3412,11 +3408,11 @@
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
@@ -3562,11 +3558,11 @@
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
@@ -3725,11 +3721,11 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
@@ -3901,11 +3897,11 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
@@ -4064,11 +4060,11 @@
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
@@ -4331,11 +4327,11 @@
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
@@ -4631,11 +4627,11 @@
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="7">
@@ -4781,11 +4777,11 @@
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="7">
@@ -4918,11 +4914,11 @@
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A205" s="15"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="7">
@@ -5055,11 +5051,11 @@
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" s="14"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="16"/>
+      <c r="A216" s="16"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="17"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="7">
@@ -5166,11 +5162,11 @@
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A225" s="17"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="7">
@@ -5277,11 +5273,11 @@
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A234" s="15"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15"/>
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="7">
@@ -5388,11 +5384,11 @@
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A243" s="17"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
+      <c r="A243" s="14"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="7">
@@ -5662,11 +5658,11 @@
       <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A265" s="17"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="17"/>
-      <c r="D265" s="17"/>
-      <c r="E265" s="17"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="7">
@@ -5786,11 +5782,11 @@
       <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A275" s="17"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="7">
@@ -5949,11 +5945,11 @@
       <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
-      <c r="C288" s="15"/>
-      <c r="D288" s="15"/>
-      <c r="E288" s="15"/>
+      <c r="A288" s="13"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="7">
@@ -6073,11 +6069,11 @@
       <c r="E297" s="8"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="7">
@@ -6327,11 +6323,11 @@
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="15"/>
-      <c r="E318" s="15"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="7">
@@ -6438,11 +6434,11 @@
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="15"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
@@ -6588,11 +6584,11 @@
       <c r="E338" s="6"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
@@ -6764,11 +6760,11 @@
       <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A353" s="15"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="15"/>
-      <c r="E353" s="15"/>
+      <c r="A353" s="13"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
@@ -6901,11 +6897,11 @@
       <c r="E363" s="6"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="15"/>
+      <c r="A364" s="13"/>
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
@@ -7064,11 +7060,11 @@
       <c r="E376" s="6"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
+      <c r="A377" s="13"/>
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
@@ -7175,11 +7171,11 @@
       <c r="E385" s="6"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A386" s="15"/>
-      <c r="B386" s="15"/>
-      <c r="C386" s="15"/>
-      <c r="D386" s="15"/>
-      <c r="E386" s="15"/>
+      <c r="A386" s="13"/>
+      <c r="B386" s="13"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="13"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
@@ -7312,11 +7308,11 @@
       <c r="E396" s="6"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
-      <c r="C397" s="15"/>
-      <c r="D397" s="15"/>
-      <c r="E397" s="15"/>
+      <c r="A397" s="13"/>
+      <c r="B397" s="13"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="13"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
@@ -7423,11 +7419,11 @@
       <c r="E405" s="6"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
-      <c r="C406" s="15"/>
-      <c r="D406" s="15"/>
-      <c r="E406" s="15"/>
+      <c r="A406" s="13"/>
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
@@ -7586,11 +7582,11 @@
       <c r="E418" s="6"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
-      <c r="C419" s="15"/>
-      <c r="D419" s="15"/>
-      <c r="E419" s="15"/>
+      <c r="A419" s="13"/>
+      <c r="B419" s="13"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
@@ -7749,11 +7745,11 @@
       <c r="E431" s="6"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A432" s="17"/>
-      <c r="B432" s="17"/>
-      <c r="C432" s="17"/>
-      <c r="D432" s="17"/>
-      <c r="E432" s="17"/>
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
@@ -7977,11 +7973,11 @@
       <c r="E449" s="6"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
-      <c r="C450" s="15"/>
-      <c r="D450" s="15"/>
-      <c r="E450" s="15"/>
+      <c r="A450" s="13"/>
+      <c r="B450" s="13"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
@@ -8166,11 +8162,11 @@
       <c r="E464" s="6"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A465" s="15"/>
-      <c r="B465" s="15"/>
-      <c r="C465" s="15"/>
-      <c r="D465" s="15"/>
-      <c r="E465" s="15"/>
+      <c r="A465" s="13"/>
+      <c r="B465" s="13"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="13"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
@@ -8368,11 +8364,11 @@
       <c r="E480" s="6"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A481" s="15"/>
-      <c r="B481" s="15"/>
-      <c r="C481" s="15"/>
-      <c r="D481" s="15"/>
-      <c r="E481" s="15"/>
+      <c r="A481" s="13"/>
+      <c r="B481" s="13"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="13"/>
+      <c r="E481" s="13"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
@@ -8531,11 +8527,11 @@
       <c r="E493" s="6"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A494" s="17"/>
-      <c r="B494" s="17"/>
-      <c r="C494" s="17"/>
-      <c r="D494" s="17"/>
-      <c r="E494" s="17"/>
+      <c r="A494" s="14"/>
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="14"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
@@ -8812,19 +8808,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A494:E494"/>
-    <mergeCell ref="A465:E465"/>
-    <mergeCell ref="A481:E481"/>
-    <mergeCell ref="A450:E450"/>
-    <mergeCell ref="A432:E432"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A406:E406"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A397:E397"/>
     <mergeCell ref="A225:E225"/>
     <mergeCell ref="A339:E339"/>
     <mergeCell ref="A353:E353"/>
@@ -8835,23 +8835,19 @@
     <mergeCell ref="A298:E298"/>
     <mergeCell ref="A318:E318"/>
     <mergeCell ref="A327:E327"/>
-    <mergeCell ref="A406:E406"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A397:E397"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A494:E494"/>
+    <mergeCell ref="A465:E465"/>
+    <mergeCell ref="A481:E481"/>
+    <mergeCell ref="A450:E450"/>
+    <mergeCell ref="A432:E432"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8862,8 +8858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9617,8 +9613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="C474" sqref="C474"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14870,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="E309" s="6">
         <v>1</v>

--- a/project/doc/滑行路线资料.xlsx
+++ b/project/doc/滑行路线资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="23415" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="滑行路线" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -975,21 +981,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1299,8 +1308,8 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1455,25 +1464,25 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="19">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="19">
         <v>9118</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="19">
         <v>100</v>
       </c>
     </row>
@@ -2094,25 +2103,25 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+      <c r="A36" s="19">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="19">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="19">
         <v>9352</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="19">
         <v>100</v>
       </c>
     </row>
@@ -2527,11 +2536,11 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -2664,11 +2673,11 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -2788,11 +2797,11 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -2938,11 +2947,11 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -3036,11 +3045,11 @@
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3160,11 +3169,11 @@
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
@@ -3258,11 +3267,11 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
@@ -3408,11 +3417,11 @@
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
@@ -3558,11 +3567,11 @@
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
@@ -3721,11 +3730,11 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
@@ -3897,11 +3906,11 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
@@ -4060,11 +4069,11 @@
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
@@ -4327,11 +4336,11 @@
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
@@ -4627,11 +4636,11 @@
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="7">
@@ -4777,11 +4786,11 @@
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="7">
@@ -4914,11 +4923,11 @@
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="7">
@@ -5051,11 +5060,11 @@
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" s="16"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="17"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="16"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="7">
@@ -5162,11 +5171,11 @@
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="7">
@@ -5273,11 +5282,11 @@
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
+      <c r="A234" s="15"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="7">
@@ -5384,11 +5393,11 @@
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A243" s="14"/>
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="7">
@@ -5658,11 +5667,11 @@
       <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="7">
@@ -5782,11 +5791,11 @@
       <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="14"/>
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="7">
@@ -5945,11 +5954,11 @@
       <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
+      <c r="C288" s="15"/>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="7">
@@ -6069,11 +6078,11 @@
       <c r="E297" s="8"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
+      <c r="A298" s="15"/>
+      <c r="B298" s="15"/>
+      <c r="C298" s="15"/>
+      <c r="D298" s="15"/>
+      <c r="E298" s="15"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="7">
@@ -6323,11 +6332,11 @@
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A318" s="13"/>
-      <c r="B318" s="13"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
+      <c r="A318" s="15"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
+      <c r="D318" s="15"/>
+      <c r="E318" s="15"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="7">
@@ -6434,11 +6443,11 @@
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A327" s="13"/>
-      <c r="B327" s="13"/>
-      <c r="C327" s="13"/>
-      <c r="D327" s="13"/>
-      <c r="E327" s="13"/>
+      <c r="A327" s="15"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
+      <c r="D327" s="15"/>
+      <c r="E327" s="15"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
@@ -6584,11 +6593,11 @@
       <c r="E338" s="6"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A339" s="13"/>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
+      <c r="A339" s="15"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
+      <c r="D339" s="15"/>
+      <c r="E339" s="15"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
@@ -6760,11 +6769,11 @@
       <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A353" s="13"/>
-      <c r="B353" s="13"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
+      <c r="A353" s="15"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
+      <c r="D353" s="15"/>
+      <c r="E353" s="15"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
@@ -6897,11 +6906,11 @@
       <c r="E363" s="6"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A364" s="13"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
+      <c r="A364" s="15"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
+      <c r="D364" s="15"/>
+      <c r="E364" s="15"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
@@ -7060,11 +7069,11 @@
       <c r="E376" s="6"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A377" s="13"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
+      <c r="A377" s="15"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="15"/>
+      <c r="D377" s="15"/>
+      <c r="E377" s="15"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
@@ -7171,11 +7180,11 @@
       <c r="E385" s="6"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A386" s="13"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
-      <c r="E386" s="13"/>
+      <c r="A386" s="15"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="15"/>
+      <c r="D386" s="15"/>
+      <c r="E386" s="15"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
@@ -7308,11 +7317,11 @@
       <c r="E396" s="6"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A397" s="13"/>
-      <c r="B397" s="13"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="13"/>
-      <c r="E397" s="13"/>
+      <c r="A397" s="15"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="15"/>
+      <c r="D397" s="15"/>
+      <c r="E397" s="15"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
@@ -7419,11 +7428,11 @@
       <c r="E405" s="6"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A406" s="13"/>
-      <c r="B406" s="13"/>
-      <c r="C406" s="13"/>
-      <c r="D406" s="13"/>
-      <c r="E406" s="13"/>
+      <c r="A406" s="15"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="15"/>
+      <c r="D406" s="15"/>
+      <c r="E406" s="15"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
@@ -7582,11 +7591,11 @@
       <c r="E418" s="6"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A419" s="13"/>
-      <c r="B419" s="13"/>
-      <c r="C419" s="13"/>
-      <c r="D419" s="13"/>
-      <c r="E419" s="13"/>
+      <c r="A419" s="15"/>
+      <c r="B419" s="15"/>
+      <c r="C419" s="15"/>
+      <c r="D419" s="15"/>
+      <c r="E419" s="15"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
@@ -7745,11 +7754,11 @@
       <c r="E431" s="6"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
+      <c r="A432" s="17"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="17"/>
+      <c r="D432" s="17"/>
+      <c r="E432" s="17"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
@@ -7973,11 +7982,11 @@
       <c r="E449" s="6"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A450" s="13"/>
-      <c r="B450" s="13"/>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13"/>
+      <c r="A450" s="15"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="15"/>
+      <c r="D450" s="15"/>
+      <c r="E450" s="15"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
@@ -8162,11 +8171,11 @@
       <c r="E464" s="6"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A465" s="13"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="13"/>
-      <c r="D465" s="13"/>
-      <c r="E465" s="13"/>
+      <c r="A465" s="15"/>
+      <c r="B465" s="15"/>
+      <c r="C465" s="15"/>
+      <c r="D465" s="15"/>
+      <c r="E465" s="15"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
@@ -8364,11 +8373,11 @@
       <c r="E480" s="6"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A481" s="13"/>
-      <c r="B481" s="13"/>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
+      <c r="A481" s="15"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="15"/>
+      <c r="D481" s="15"/>
+      <c r="E481" s="15"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
@@ -8527,11 +8536,11 @@
       <c r="E493" s="6"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A494" s="14"/>
-      <c r="B494" s="14"/>
-      <c r="C494" s="14"/>
-      <c r="D494" s="14"/>
-      <c r="E494" s="14"/>
+      <c r="A494" s="17"/>
+      <c r="B494" s="17"/>
+      <c r="C494" s="17"/>
+      <c r="D494" s="17"/>
+      <c r="E494" s="17"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
@@ -8808,6 +8817,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A494:E494"/>
+    <mergeCell ref="A465:E465"/>
+    <mergeCell ref="A481:E481"/>
+    <mergeCell ref="A450:E450"/>
+    <mergeCell ref="A432:E432"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A364:E364"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A298:E298"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A327:E327"/>
+    <mergeCell ref="A406:E406"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A397:E397"/>
     <mergeCell ref="A110:E110"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A216:E216"/>
@@ -8818,36 +8857,6 @@
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="A158:E158"/>
     <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A406:E406"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A397:E397"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A339:E339"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A364:E364"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A298:E298"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A327:E327"/>
-    <mergeCell ref="A494:E494"/>
-    <mergeCell ref="A465:E465"/>
-    <mergeCell ref="A481:E481"/>
-    <mergeCell ref="A450:E450"/>
-    <mergeCell ref="A432:E432"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8858,8 +8867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9613,8 +9622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="D306" sqref="D306"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
